--- a/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB1D9C6B-38C4-4FDF-87E7-37FED417A6D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43B837-71D2-4BF0-807F-70514217A46E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
+    <workbookView xWindow="948" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="4" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="config1" sheetId="1" r:id="rId1"/>
-    <sheet name="config2" sheetId="2" r:id="rId2"/>
+    <sheet name="config1" sheetId="2" r:id="rId1"/>
+    <sheet name="config2" sheetId="1" r:id="rId2"/>
+    <sheet name="config3" sheetId="3" r:id="rId3"/>
+    <sheet name="config4" sheetId="4" r:id="rId4"/>
+    <sheet name="config5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>Port ID</t>
   </si>
@@ -394,14 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,70 +415,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
         <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -484,14 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,37 +474,544 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>65</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
         <v>63</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B8B57F-3A97-403E-BB3C-494DFBF53EB8}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
       <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A812F76E-D8C1-4910-93AA-4B5DEBE09280}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>75</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B064F5-AB2B-4F93-B457-86F20720E553}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\01 Purdue Courses\+airtaxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB1D9C6B-38C4-4FDF-87E7-37FED417A6D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D4FA76-4492-402A-A322-7F5A341489F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
+    <workbookView xWindow="948" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="4" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="config1" sheetId="1" r:id="rId1"/>
-    <sheet name="config2" sheetId="2" r:id="rId2"/>
+    <sheet name="config1" sheetId="2" r:id="rId1"/>
+    <sheet name="config2" sheetId="1" r:id="rId2"/>
+    <sheet name="config3" sheetId="3" r:id="rId3"/>
+    <sheet name="config4" sheetId="4" r:id="rId4"/>
+    <sheet name="config5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>Port ID</t>
   </si>
@@ -394,14 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,70 +415,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
         <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -484,14 +454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,37 +474,562 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>65</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
         <v>63</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCFD2C-BB3C-4530-8DBD-91C5F845AD5D}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
       <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:C10" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85895A96-692D-4A6C-93A3-32DFC00D565A}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>75</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C13" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>98</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E703545B-38EF-4A08-B148-C1158308FE35}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>95</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:C16" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>91</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmyers\Documents\GitHub\SoS12\AAE 560 Air Taxi Model\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Stuff\Spring 2018\AAE560 - System of Systems\Project\Part 3 - Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB1D9C6B-38C4-4FDF-87E7-37FED417A6D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0435FB38-3403-42B6-BA70-ACB37E9EC049}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="22695" windowHeight="8745" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9048" firstSheet="1" activeTab="4" xr2:uid="{7FB735A9-F766-43DC-8899-CD0B7B1F8C14}"/>
   </bookViews>
   <sheets>
     <sheet name="config1" sheetId="1" r:id="rId1"/>
     <sheet name="config2" sheetId="2" r:id="rId2"/>
+    <sheet name="config3" sheetId="3" r:id="rId3"/>
+    <sheet name="config4" sheetId="4" r:id="rId4"/>
+    <sheet name="config5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>Port ID</t>
   </si>
@@ -41,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +59,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,15 +83,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9D0AEC56-BA6F-44DD-87D3-12BD8ED4BD00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,14 +409,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F5574C-74F3-4AC2-A567-4D4DDEC9B1AB}">
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,70 +433,838 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>-15.275</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.90120000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9371</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.9301000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-19.406099999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13.106200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5760999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-5.8411000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-7.4986000000000006</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-11.5153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-17.587</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.4032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-15.656799999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-15.131200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-30.320799999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-14.4209</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16.2882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-4.3742000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-2.0249000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-12.712899999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.1833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-25.113400000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.6355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.1677000000000017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.8811999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.2109000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-41.922800000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.0831999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-3.6493000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-15.969299999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-22.3917</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.6008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-30.147200000000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-11.003500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-5.1958000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-10.3245</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-6.9203000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-11.7934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B26" s="2">
+        <v>-5.617</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-6.6198999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-14.4557</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-16.199200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-9.2829999999999995</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.27810000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-9.803700000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.2789999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-22.134799999999998</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-5.6408000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-18.399400000000004</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-1.1237000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-37.8611</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41.423800000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-5.9222999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-29.083000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-44.3065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>27.364400000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.3923000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45.658300000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.3900000000000001E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-22.759700000000002</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43.680099999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A804C-CBA9-4BAF-909F-862524F0FA09}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.9222999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-29.082999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-6.6199000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-3.6493000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B7" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.1677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-37.8611</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41.4238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-44.3065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-18.3994</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1.1236999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-16.199200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-11.7934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-5.1958000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-25.113399999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.6355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-7.4985999999999997</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-11.5153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-9.8036999999999992</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.2789999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5.617</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-14.4209</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16.2882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-15.275</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-4.3742000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-2.0249000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.9371</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.9301000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.3923000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45.658299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -483,15 +1272,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC5CDFC-E950-4E26-943E-77FEA16231FD}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,37 +1297,548 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.9222999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-44.3065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
+      <c r="B4" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-6.6199000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-22.3917</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.6008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.1677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-18.3994</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1.1236999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-14.4557</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-10.3245</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-6.9203000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.8812000000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.2109000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-15.1312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.5761000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-5.8411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-19.406099999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13.106199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45.658299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.3923000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B0959-990D-4341-BB89-BC0A1CF5D720}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-29.082999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-3.6493000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-30.320799999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-16.199200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-5.1958000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-15.1312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45.658299999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F86DCE-E495-489F-BFDA-E13AE783DBF9}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-29.082999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-11.7934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-15.1312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-15.9693</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45.658299999999997</v>
       </c>
     </row>
   </sheetData>

--- a/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
+++ b/AAE 560 Air Taxi Model/+airtaxi/PortLocations.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\01 Purdue Courses\+airtaxi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Stuff\Spring 2018\AAE560 - System of Systems\Project\Part 3 - Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D4FA76-4492-402A-A322-7F5A341489F4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0435FB38-3403-42B6-BA70-ACB37E9EC049}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="22692" windowHeight="8748" activeTab="4" xr2:uid="{3254B554-420D-4209-A925-C58D9FDE06D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9048" firstSheet="1" activeTab="4" xr2:uid="{7FB735A9-F766-43DC-8899-CD0B7B1F8C14}"/>
   </bookViews>
   <sheets>
-    <sheet name="config1" sheetId="2" r:id="rId1"/>
-    <sheet name="config2" sheetId="1" r:id="rId2"/>
+    <sheet name="config1" sheetId="1" r:id="rId1"/>
+    <sheet name="config2" sheetId="2" r:id="rId2"/>
     <sheet name="config3" sheetId="3" r:id="rId3"/>
     <sheet name="config4" sheetId="4" r:id="rId4"/>
     <sheet name="config5" sheetId="5" r:id="rId5"/>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,15 +83,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9D0AEC56-BA6F-44DD-87D3-12BD8ED4BD00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,12 +409,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0411A7F1-0CF4-4B04-A590-67A3BBD76780}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F5574C-74F3-4AC2-A567-4D4DDEC9B1AB}">
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -416,52 +434,508 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>65</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2">
+        <v>-15.275</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.90120000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9371</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.9301000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-19.406099999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13.106200000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5760999999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-5.8411000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-7.4986000000000006</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-11.5153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-17.587</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.4032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-15.656799999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-15.131200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-30.320799999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-14.4209</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16.2882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-4.3742000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-2.0249000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-12.712899999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.1833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-25.113400000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.6355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.1677000000000017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.8811999999999998</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.2109000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-41.922800000000002</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.0831999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-3.6493000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-15.969299999999999</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3.8050000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-22.3917</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.6008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-30.147200000000002</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-11.003500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-5.1958000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-10.3245</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-6.9203000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-11.7934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="B26" s="2">
+        <v>-5.617</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-6.6198999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-14.4557</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-16.199200000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-9.2829999999999995</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.27810000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-9.803700000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9.2789999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-22.134799999999998</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-5.6408000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-18.399400000000004</v>
+      </c>
+      <c r="C34" s="2">
+        <v>-1.1237000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-37.8611</v>
+      </c>
+      <c r="C35" s="2">
+        <v>41.423800000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-5.9222999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-29.083000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-44.3065</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
+      <c r="B41" s="2">
+        <v>27.364400000000003</v>
+      </c>
+      <c r="C41" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3.3923000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45.658300000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1.3900000000000001E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-22.759700000000002</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43.680099999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992CE34A-1CA5-4849-BB50-F71C4482B6BE}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A804C-CBA9-4BAF-909F-862524F0FA09}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -475,69 +949,322 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.9222999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-29.082999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-6.6199000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-3.6493000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.1677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-37.8611</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41.4238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-44.3065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-18.3994</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1.1236999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-16.199200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-11.7934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-5.1958000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-25.113399999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1.6355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-7.4985999999999997</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-11.5153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-9.8036999999999992</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.2789999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5.617</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-14.4209</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16.2882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-15.275</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-4.3742000000000001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-2.0249000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="C2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B26" s="2">
+        <v>1.9371</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.9301000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.3923000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45.658299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -546,14 +1273,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDCFD2C-BB3C-4530-8DBD-91C5F845AD5D}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC5CDFC-E950-4E26-943E-77FEA16231FD}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -567,108 +1298,223 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
+      <c r="B2" s="2">
+        <v>-76.4345</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.9222999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="B3" s="2">
+        <v>-21.872299999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-44.3065</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
+      <c r="B4" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2893</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
+      <c r="B5" s="2">
+        <v>-31.508099999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-6.6199000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
+      <c r="B6" s="2">
+        <v>-22.3917</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.6008</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B7" s="2">
+        <v>-32.105200000000004</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.1677</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>43</v>
-      </c>
-      <c r="C8">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>67</v>
+      <c r="B8" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.7187000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:C10" ca="1" si="0">RANDBETWEEN(1,100)</f>
+      <c r="B9" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-41.773099999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-18.3994</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1.1236999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B12" s="2">
+        <v>-14.4557</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-10.3245</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-6.9203000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.8812000000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.2109000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-15.1312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.5761000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-5.8411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+      <c r="B17" s="2">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.2178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-19.406099999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>13.106199999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45.658299999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>40.684800000000003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.3923000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -677,14 +1523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85895A96-692D-4A6C-93A3-32DFC00D565A}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B0959-990D-4341-BB89-BC0A1CF5D720}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -698,141 +1548,157 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
+      <c r="B2" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-29.082999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="B3" s="2">
+        <v>-34.424199999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-3.6493000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
+      <c r="B4" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2893</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
+      <c r="B5" s="2">
+        <v>-30.320799999999998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.623</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
+      <c r="B6" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-41.773099999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B7" s="2">
+        <v>-22.377800000000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-16.199200000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" s="2">
+        <v>-16.9483</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-5.1958000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
+      <c r="B9" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-15.1312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43.680100000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-3.7284999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.7408999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-16.642800000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.3025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>82</v>
-      </c>
-      <c r="C11">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:C13" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>98</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+      <c r="B13" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.7187000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-25.749700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45.658299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -841,14 +1707,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E703545B-38EF-4A08-B148-C1158308FE35}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F86DCE-E495-489F-BFDA-E13AE783DBF9}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -862,174 +1732,113 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>65</v>
+      <c r="B2" s="2">
+        <v>-47.199599999999997</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-29.082999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
+      <c r="B3" s="2">
+        <v>-49.838000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2893</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
+      <c r="B4" s="2">
+        <v>9.3717000000000006</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-41.773099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
+      <c r="B5" s="2">
+        <v>-22.4681</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-11.7934</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
+      <c r="B6" s="2">
+        <v>-15.6568</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-15.1312</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
+      <c r="B7" s="2">
+        <v>-22.759699999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43.680100000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" s="2">
+        <v>-15.9693</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.8050000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
+      <c r="B9" s="2">
+        <v>-28.432200000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.7187000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>54</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
+      <c r="B10" s="2">
+        <v>27.3644</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-25.749700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>94</v>
-      </c>
-      <c r="C13">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ref="B15:C16" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>91</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+      <c r="B11" s="2">
+        <v>23.952400000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45.658299999999997</v>
       </c>
     </row>
   </sheetData>
